--- a/results/013-ms1-pathways-TOR.xlsx
+++ b/results/013-ms1-pathways-TOR.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -56,9 +56,6 @@
     <t xml:space="preserve">MGG_03558T0 [664-681]|[R].RPSPGGRFPSDLTINAER.[G]|2xPhospho [S3(100); S10(99.5)]|S666; S673</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_03558T0 [664-681]|[R].RPSPGGRFPSDLTINAER.[G]|2xPhospho [T13(99.1); S]|S666; S/T</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_01047T0 [477-519]|[K].SAQDSGLASPQTAGTTPQAVSPTTAEAPKPQTVVTDQKKPMDA.[-]|1xOxidation [M41];2xPhospho [S/T]|S497; S/T</t>
   </si>
   <si>
@@ -86,12 +83,6 @@
     <t xml:space="preserve">MGG_05284T0 [194-201]|[R].TGPLTPSR.[Q]|1xPhospho [T5(100)]|T198</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_05284T0 [194-201]|[R].TGPLTPSR.[Q]|1xPhospho [T/S]|T/S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGG_01795T0 [138-151]|[R].SASNAGSRPYDPHR.[I]|1xPhospho [S/Y]|S/Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_01795T0 [138-151]|[R].SASNAGSRPYDPHR.[I]|1xPhospho [S3(99.2)]|S140</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
     <t xml:space="preserve">MGG_14773T0 [285-305]|[R].SGSHEDKANGTSTGTSTPSLR.[S]|1xPhospho [T17(86.3)]|T301</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_14773T0 [285-305]|[R].SGSHEDKANGTSTGTSTPSLR.[S]|1xPhospho [T/S]|T/S</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_14773T0 [285-305]|[R].SGSHEDKANGTSTGTSTPSLR.[S]|1xPhospho [T15(97.3)]|T299</t>
   </si>
   <si>
@@ -116,12 +104,6 @@
     <t xml:space="preserve">MGG_03064T0 [857-866]|[K].RSSSSLLPLR.[S]|1xPhospho [S3(99.3)]|S859</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_03064T0 [857-866]|[K].RSSSSLLPLR.[S]|1xPhospho [S]|S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGG_05189T0 [32-43]|[R].RRQSSGLGSELR.[V]|1xPhospho [S]|S</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_05189T0 [32-43]|[R].RRQSSGLGSELR.[V]|2xPhospho [S4(100); S5(99.9)]|S35; S36</t>
   </si>
   <si>
@@ -134,9 +116,6 @@
     <t xml:space="preserve">MGG_03064T0 [1255-1281]|[R].SEVPTSPERAAAAATAASEAGPVPNHR.[-]|1xPhospho [S6(82.4)]|S1260</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_03064T0 [1255-1281]|[R].SEVPTSPERAAAAATAASEAGPVPNHR.[-]|1xPhospho [T/S]|T/S</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_03064T0 [1255-1281]|[R].SEVPTSPERAAAAATAASEAGPVPNHR.[-]|1xPhospho [S1(81.7)]|S1255</t>
   </si>
   <si>
@@ -161,9 +140,6 @@
     <t xml:space="preserve">MGG_02874T0 [1067-1095]|[R].TVSTLFSPFFPVDGPTTPTTPEPSPGLYR.[T]|1xPhospho [T1(83.8)]|T1067</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_02874T0 [1067-1095]|[R].TVSTLFSPFFPVDGPTTPTTPEPSPGLYR.[T]|1xPhospho [S/T/Y]|S/T/Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_02874T0 [1067-1095]|[R].TVSTLFSPFFPVDGPTTPTTPEPSPGLYR.[T]|1xPhospho [S3(80.5)]|S1069</t>
   </si>
   <si>
@@ -179,9 +155,6 @@
     <t xml:space="preserve">MGG_01795T0 [424-442]|[R].AASFVGTAEYVSPELLTDK.[S]|1xPhospho [S3(100)]|S426</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_01047T0 [412-441]|[R].VNTDANAASAAAAAMSSPASPTSPTSPTEK.[N]|1xOxidation [M15];1xPhospho [S/T]|M15;S/T</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_01047T0 [412-441]|[R].VNTDANAASAAAAAMSSPASPTSPTSPTEK.[N]|1xOxidation [M15];1xPhospho [T28(77.5)]|T439</t>
   </si>
   <si>
@@ -194,9 +167,6 @@
     <t xml:space="preserve">MGG_01047T0 [412-441]|[R].VNTDANAASAAAAAMSSPASPTSPTSPTEK.[N]|1xOxidation [M15];1xPhospho [S26(87.7)]|S437</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_01047T0 [412-441]|[R].VNTDANAASAAAAAMSSPASPTSPTSPTEK.[N]|1xOxidation [M15];2xPhospho [S/T]|S431; S/T</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_01047T0 [412-441]|[R].VNTDANAASAAAAAMSSPASPTSPTSPTEK.[N]|1xOxidation [M15];2xPhospho [S17(91); S20(87.3)]|S428; S431</t>
   </si>
   <si>
@@ -236,9 +206,6 @@
     <t xml:space="preserve">MGG_07012T0 [494-525]|[R].HLTPPIIPDQGPDGNFRTLKDSQSVDIGGATR.[K]|2xPhospho [S22(83.3); S24(83.3)]|S515; S517</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_07012T0 [494-525]|[R].HLTPPIIPDQGPDGNFRTLKDSQSVDIGGATR.[K]|2xPhospho [T/S]|T/S</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_07012T0 [494-525]|[R].HLTPPIIPDQGPDGNFRTLKDSQSVDIGGATR.[K]|2xPhospho [S24(93.6); T31(79.2)]|S517; T524</t>
   </si>
   <si>
@@ -248,9 +215,6 @@
     <t xml:space="preserve">MGG_11443T0 [407-425]|[K].EKPQPSPGKIGTALSNLQR.[G]|1xPhospho [S6(100)]|S412</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_12955T0 [170-180]|[R].RGSQSALETVK.[E]|1xPhospho [S/T]|S/T</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_12955T0 [170-180]|[R].RGSQSALETVK.[E]|1xPhospho [S3(92.4)]|S172</t>
   </si>
   <si>
@@ -260,9 +224,6 @@
     <t xml:space="preserve">MGG_03064T0 [9-25]|[R].RPGPGQEQPPRSPDYSR.[S]|1xPhospho [S16(83.2)]|S24</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_03064T0 [9-25]|[R].RPGPGQEQPPRSPDYSR.[S]|1xPhospho [S/Y]|S/Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_03064T0 [9-25]|[R].RPGPGQEQPPRSPDYSR.[S]|1xPhospho [S12(87.5)]|S20</t>
   </si>
   <si>
@@ -282,9 +243,6 @@
   </si>
   <si>
     <t xml:space="preserve">MGG_08689T0 [668-678]|[K].FMYSSQTSPQR.[I]|1xOxidation [M2];1xPhospho [S8(82.8)]|S675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGG_01047T0 [457-476]|[K].QESGVTGADTVASPDALSPK.[S]|1xPhospho [T/S]|T/S</t>
   </si>
   <si>
     <t xml:space="preserve">MGG_01047T0 [457-476]|[K].QESGVTGADTVASPDALSPK.[S]|1xPhospho [S13(92.9)]|S469</t>
@@ -706,19 +664,19 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.429884788276484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.879412590042182</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.206143877207065</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.086895303217623</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -727,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.115005890515719</v>
+        <v>0.339626395243951</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.368303801550902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.4617337130613</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.437590830777326</v>
       </c>
     </row>
     <row r="4">
@@ -747,40 +705,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.429884788276484</v>
+        <v>0.809072042113784</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.250925840381127</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.272266366628755</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.332937413819948</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.33809198113271</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.654512247218136</v>
       </c>
       <c r="I4" t="n">
-        <v>0.339626395243951</v>
+        <v>0.805463431162518</v>
       </c>
       <c r="J4" t="n">
-        <v>0.368303801550902</v>
+        <v>0.384630026085183</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4617337130613</v>
+        <v>0.214623329908405</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.3182824031768</v>
       </c>
       <c r="M4" t="n">
-        <v>0.437590830777326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -788,40 +746,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.809072042113784</v>
+        <v>0.757009277907531</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.250925840381127</v>
+        <v>0.620590579971855</v>
       </c>
       <c r="E5" t="n">
-        <v>0.272266366628755</v>
+        <v>0.795209546935593</v>
       </c>
       <c r="F5" t="n">
-        <v>0.332937413819948</v>
+        <v>0.687358823207981</v>
       </c>
       <c r="G5" t="n">
-        <v>0.33809198113271</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.654512247218136</v>
+        <v>0.628445589130907</v>
       </c>
       <c r="I5" t="n">
-        <v>0.805463431162518</v>
+        <v>0.686167460957374</v>
       </c>
       <c r="J5" t="n">
-        <v>0.384630026085183</v>
+        <v>0.864718595826833</v>
       </c>
       <c r="K5" t="n">
-        <v>0.214623329908405</v>
+        <v>0.677262106616129</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3182824031768</v>
+        <v>0.516613006114678</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0.581931239388974</v>
       </c>
     </row>
     <row r="6">
@@ -829,40 +787,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.757009277907531</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.620590579971855</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.795209546935593</v>
+        <v>0.52570527184146</v>
       </c>
       <c r="F6" t="n">
-        <v>0.687358823207981</v>
+        <v>0.901723195591935</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.628445589130907</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.686167460957374</v>
+        <v>0.569427712350369</v>
       </c>
       <c r="J6" t="n">
-        <v>0.864718595826833</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.677262106616129</v>
+        <v>0.662891976938044</v>
       </c>
       <c r="L6" t="n">
-        <v>0.516613006114678</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.581931239388974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -952,7 +910,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.888886547572206</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -961,31 +919,31 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.52570527184146</v>
+        <v>0.0546453866123738</v>
       </c>
       <c r="F9" t="n">
-        <v>0.901723195591935</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.408667470749565</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.22716112837959</v>
       </c>
       <c r="I9" t="n">
-        <v>0.569427712350369</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.0493079104664274</v>
       </c>
       <c r="K9" t="n">
-        <v>0.662891976938044</v>
+        <v>0.0496109860091919</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.696798886587891</v>
       </c>
     </row>
     <row r="10">
@@ -993,40 +951,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.888886547572206</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.0536074812568488</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.253121232848951</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0546453866123738</v>
+        <v>0.521296194532864</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.268432316211623</v>
       </c>
       <c r="G10" t="n">
-        <v>0.408667470749565</v>
+        <v>0.661905182506551</v>
       </c>
       <c r="H10" t="n">
-        <v>0.22716112837959</v>
+        <v>0.499834601652317</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0.673188234084961</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0493079104664274</v>
+        <v>0.360014406373334</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0496109860091919</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.311119309073232</v>
       </c>
       <c r="M10" t="n">
-        <v>0.696798886587891</v>
+        <v>0.440706987310077</v>
       </c>
     </row>
     <row r="11">
@@ -1034,40 +992,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.688026776030891</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0536074812568488</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.253121232848951</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.521296194532864</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.268432316211623</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.661905182506551</v>
+        <v>0.448702883804615</v>
       </c>
       <c r="H11" t="n">
-        <v>0.499834601652317</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.673188234084961</v>
+        <v>0.456767884302901</v>
       </c>
       <c r="J11" t="n">
-        <v>0.360014406373334</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.311119309073232</v>
+        <v>0.295447542711248</v>
       </c>
       <c r="M11" t="n">
-        <v>0.440706987310077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1075,40 +1033,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.688026776030891</v>
+        <v>0.436313647305363</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.774861049566109</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.494879192543317</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.748881774085262</v>
       </c>
       <c r="G12" t="n">
-        <v>0.448702883804615</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.310076987022742</v>
       </c>
       <c r="I12" t="n">
-        <v>0.456767884302901</v>
+        <v>0.659989654662052</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.391773279867589</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.515972579347077</v>
       </c>
       <c r="L12" t="n">
-        <v>0.295447542711248</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0.728843290224111</v>
       </c>
     </row>
     <row r="13">
@@ -1116,7 +1074,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.688026776030891</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1125,31 +1083,31 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.975819730797793</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.448702883804615</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.504115444834523</v>
       </c>
       <c r="I13" t="n">
-        <v>0.456767884302901</v>
+        <v>0.951928964291201</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.996745217357567</v>
       </c>
       <c r="L13" t="n">
-        <v>0.295447542711248</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0.515611108383459</v>
       </c>
     </row>
     <row r="14">
@@ -1157,40 +1115,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.482617801951269</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.702963664394059</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.547398665184358</v>
+        <v>0.598133701447008</v>
       </c>
       <c r="F14" t="n">
-        <v>0.67960715230711</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.491464895796467</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3429841693855</v>
+        <v>0.29937461238662</v>
       </c>
       <c r="I14" t="n">
-        <v>0.730031614666988</v>
+        <v>0.324096587711971</v>
       </c>
       <c r="J14" t="n">
-        <v>0.433350550368199</v>
+        <v>0.296089540458935</v>
       </c>
       <c r="K14" t="n">
-        <v>0.570730605493377</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.80619240050658</v>
+        <v>0.162448873480659</v>
       </c>
     </row>
     <row r="15">
@@ -1198,40 +1156,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>0.436313647305363</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.774861049566109</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.494879192543317</v>
+        <v>0.598133701447008</v>
       </c>
       <c r="F15" t="n">
-        <v>0.748881774085262</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.491464895796467</v>
       </c>
       <c r="H15" t="n">
-        <v>0.310076987022742</v>
+        <v>0.29937461238662</v>
       </c>
       <c r="I15" t="n">
-        <v>0.659989654662052</v>
+        <v>0.324096587711971</v>
       </c>
       <c r="J15" t="n">
-        <v>0.391773279867589</v>
+        <v>0.296089540458935</v>
       </c>
       <c r="K15" t="n">
-        <v>0.515972579347077</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.728843290224111</v>
+        <v>0.162448873480659</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1247,31 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.598133701447008</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.491464895796467</v>
+        <v>0.486016580677434</v>
       </c>
       <c r="H17" t="n">
-        <v>0.29937461238662</v>
+        <v>0.245062936677274</v>
       </c>
       <c r="I17" t="n">
-        <v>0.324096587711971</v>
+        <v>0.908060689806483</v>
       </c>
       <c r="J17" t="n">
-        <v>0.296089540458935</v>
+        <v>0.249229933757739</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.20884708642896</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.162448873480659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1327,34 +1285,34 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.504620412626718</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.797328666548242</v>
+        <v>0.727329301390074</v>
       </c>
       <c r="G18" t="n">
-        <v>0.977013578661991</v>
+        <v>0.814698256241292</v>
       </c>
       <c r="H18" t="n">
-        <v>0.523076267250499</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.753046251052248</v>
+        <v>0.745372676209532</v>
       </c>
       <c r="J18" t="n">
-        <v>0.236080678473004</v>
+        <v>0.643281105998825</v>
       </c>
       <c r="K18" t="n">
-        <v>0.507587619391509</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.382877264204864</v>
+        <v>0.503834444151633</v>
       </c>
     </row>
     <row r="19">
@@ -1368,34 +1326,34 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.335787764209103</v>
       </c>
       <c r="E19" t="n">
-        <v>0.598133701447008</v>
+        <v>0.428732787103855</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0.382244652535941</v>
       </c>
       <c r="G19" t="n">
-        <v>0.491464895796467</v>
+        <v>0.81625057438663</v>
       </c>
       <c r="H19" t="n">
-        <v>0.29937461238662</v>
+        <v>0.309376229603779</v>
       </c>
       <c r="I19" t="n">
-        <v>0.324096587711971</v>
+        <v>0.76113694632674</v>
       </c>
       <c r="J19" t="n">
-        <v>0.296089540458935</v>
+        <v>0.298482732576306</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.482999723350065</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.229401938519738</v>
       </c>
       <c r="M19" t="n">
-        <v>0.162448873480659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1409,34 +1367,34 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.639295145684777</v>
       </c>
       <c r="E20" t="n">
-        <v>0.975819730797793</v>
+        <v>0.247006436111714</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.54530993237312</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.27996281360427</v>
       </c>
       <c r="H20" t="n">
-        <v>0.504115444834523</v>
+        <v>0.569376832165141</v>
       </c>
       <c r="I20" t="n">
-        <v>0.951928964291201</v>
+        <v>0.499782499329653</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.734381729424587</v>
       </c>
       <c r="K20" t="n">
-        <v>0.996745217357567</v>
+        <v>0.136696852332467</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.558793468170323</v>
       </c>
       <c r="M20" t="n">
-        <v>0.515611108383459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1450,34 +1408,34 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.814566579144914</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.674965354417995</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.486016580677434</v>
+        <v>0.820870323200173</v>
       </c>
       <c r="H21" t="n">
-        <v>0.245062936677274</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.908060689806483</v>
+        <v>0.923972865036669</v>
       </c>
       <c r="J21" t="n">
-        <v>0.249229933757739</v>
+        <v>0.631474196845096</v>
       </c>
       <c r="K21" t="n">
-        <v>0.20884708642896</v>
+        <v>0.395688123689454</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.465630968168068</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0.296210129181198</v>
       </c>
     </row>
     <row r="22">
@@ -1491,34 +1449,34 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.504620412626718</v>
+        <v>0.814566579144914</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.674965354417995</v>
       </c>
       <c r="F22" t="n">
-        <v>0.727329301390074</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.814698256241292</v>
+        <v>0.820870323200173</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.745372676209532</v>
+        <v>0.923972865036669</v>
       </c>
       <c r="J22" t="n">
-        <v>0.643281105998825</v>
+        <v>0.631474196845096</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.395688123689454</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.465630968168068</v>
       </c>
       <c r="M22" t="n">
-        <v>0.503834444151633</v>
+        <v>0.296210129181198</v>
       </c>
     </row>
     <row r="23">
@@ -1532,34 +1490,34 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.504620412626718</v>
+        <v>0.814566579144914</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.674965354417995</v>
       </c>
       <c r="F23" t="n">
-        <v>0.727329301390074</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.814698256241292</v>
+        <v>0.820870323200173</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.745372676209532</v>
+        <v>0.923972865036669</v>
       </c>
       <c r="J23" t="n">
-        <v>0.643281105998825</v>
+        <v>0.631474196845096</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.395688123689454</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.465630968168068</v>
       </c>
       <c r="M23" t="n">
-        <v>0.503834444151633</v>
+        <v>0.296210129181198</v>
       </c>
     </row>
     <row r="24">
@@ -1573,34 +1531,34 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.639295145684777</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.247006436111714</v>
+        <v>0.281119426748121</v>
       </c>
       <c r="F24" t="n">
-        <v>0.54530993237312</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.27996281360427</v>
+        <v>0.505273530124859</v>
       </c>
       <c r="H24" t="n">
-        <v>0.569376832165141</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.499782499329653</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0.734381729424587</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.136696852332467</v>
+        <v>0.353103279538719</v>
       </c>
       <c r="L24" t="n">
-        <v>0.558793468170323</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0.499256208465327</v>
       </c>
     </row>
     <row r="25">
@@ -1614,34 +1572,34 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.335787764209103</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.428732787103855</v>
+        <v>0.524101744898766</v>
       </c>
       <c r="F25" t="n">
-        <v>0.382244652535941</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.81625057438663</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.309376229603779</v>
+        <v>0.47234955504265</v>
       </c>
       <c r="I25" t="n">
-        <v>0.76113694632674</v>
+        <v>0.635250198910776</v>
       </c>
       <c r="J25" t="n">
-        <v>0.298482732576306</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.482999723350065</v>
+        <v>0.361234570238781</v>
       </c>
       <c r="L25" t="n">
-        <v>0.229401938519738</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.675963161764095</v>
       </c>
     </row>
     <row r="26">
@@ -1655,34 +1613,34 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.639295145684777</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.247006436111714</v>
+        <v>0.524101744898766</v>
       </c>
       <c r="F26" t="n">
-        <v>0.54530993237312</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.27996281360427</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.569376832165141</v>
+        <v>0.47234955504265</v>
       </c>
       <c r="I26" t="n">
-        <v>0.499782499329653</v>
+        <v>0.635250198910776</v>
       </c>
       <c r="J26" t="n">
-        <v>0.734381729424587</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.136696852332467</v>
+        <v>0.361234570238781</v>
       </c>
       <c r="L26" t="n">
-        <v>0.558793468170323</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0.675963161764095</v>
       </c>
     </row>
     <row r="27">
@@ -1696,34 +1654,34 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.814566579144914</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.674965354417995</v>
+        <v>0.524101744898766</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.820870323200173</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.47234955504265</v>
       </c>
       <c r="I27" t="n">
-        <v>0.923972865036669</v>
+        <v>0.635250198910776</v>
       </c>
       <c r="J27" t="n">
-        <v>0.631474196845096</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.395688123689454</v>
+        <v>0.361234570238781</v>
       </c>
       <c r="L27" t="n">
-        <v>0.465630968168068</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.296210129181198</v>
+        <v>0.675963161764095</v>
       </c>
     </row>
     <row r="28">
@@ -1737,34 +1695,34 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.814566579144914</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.674965354417995</v>
+        <v>0.524101744898766</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.820870323200173</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.47234955504265</v>
       </c>
       <c r="I28" t="n">
-        <v>0.923972865036669</v>
+        <v>0.635250198910776</v>
       </c>
       <c r="J28" t="n">
-        <v>0.631474196845096</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.395688123689454</v>
+        <v>0.361234570238781</v>
       </c>
       <c r="L28" t="n">
-        <v>0.465630968168068</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.296210129181198</v>
+        <v>0.675963161764095</v>
       </c>
     </row>
     <row r="29">
@@ -1778,34 +1736,34 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.814566579144914</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.674965354417995</v>
+        <v>0.575220060047423</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0.420360874578837</v>
       </c>
       <c r="G29" t="n">
-        <v>0.820870323200173</v>
+        <v>0.532813293539368</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.602099442670749</v>
       </c>
       <c r="I29" t="n">
-        <v>0.923972865036669</v>
+        <v>0.70144041751895</v>
       </c>
       <c r="J29" t="n">
-        <v>0.631474196845096</v>
+        <v>0.360471398910895</v>
       </c>
       <c r="K29" t="n">
-        <v>0.395688123689454</v>
+        <v>0.221392665575103</v>
       </c>
       <c r="L29" t="n">
-        <v>0.465630968168068</v>
+        <v>0.438082774407155</v>
       </c>
       <c r="M29" t="n">
-        <v>0.296210129181198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1819,34 +1777,34 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.814566579144914</v>
+        <v>0.700781306742184</v>
       </c>
       <c r="E30" t="n">
-        <v>0.674965354417995</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.820870323200173</v>
+        <v>0.298186543908482</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.498718377562306</v>
       </c>
       <c r="I30" t="n">
-        <v>0.923972865036669</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.631474196845096</v>
+        <v>0.780268545467063</v>
       </c>
       <c r="K30" t="n">
-        <v>0.395688123689454</v>
+        <v>0.5292405323081</v>
       </c>
       <c r="L30" t="n">
-        <v>0.465630968168068</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.296210129181198</v>
+        <v>0.43177407561789</v>
       </c>
     </row>
     <row r="31">
@@ -1860,34 +1818,34 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.700781306742184</v>
       </c>
       <c r="E31" t="n">
-        <v>0.281119426748121</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.505273530124859</v>
+        <v>0.298186543908482</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.498718377562306</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.780268545467063</v>
       </c>
       <c r="K31" t="n">
-        <v>0.353103279538719</v>
+        <v>0.5292405323081</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.499256208465327</v>
+        <v>0.43177407561789</v>
       </c>
     </row>
     <row r="32">
@@ -1901,34 +1859,34 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.597935612005128</v>
       </c>
       <c r="E32" t="n">
-        <v>0.524101744898766</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.962171015471148</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.872584163757816</v>
       </c>
       <c r="H32" t="n">
-        <v>0.47234955504265</v>
+        <v>0.8390715323327</v>
       </c>
       <c r="I32" t="n">
-        <v>0.635250198910776</v>
+        <v>0.925017779960672</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.493577559298481</v>
       </c>
       <c r="K32" t="n">
-        <v>0.361234570238781</v>
+        <v>0.534796803917815</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.538267098973594</v>
       </c>
       <c r="M32" t="n">
-        <v>0.675963161764095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1942,34 +1900,34 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.355686410111262</v>
       </c>
       <c r="E33" t="n">
-        <v>0.524101744898766</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.521617663504386</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.813506650374751</v>
       </c>
       <c r="H33" t="n">
-        <v>0.47234955504265</v>
+        <v>0.505354910772697</v>
       </c>
       <c r="I33" t="n">
-        <v>0.635250198910776</v>
+        <v>0.769487225822063</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.504586239128325</v>
       </c>
       <c r="K33" t="n">
-        <v>0.361234570238781</v>
+        <v>0.302050703638361</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.655093953486898</v>
       </c>
       <c r="M33" t="n">
-        <v>0.675963161764095</v>
+        <v>0.884901383964634</v>
       </c>
     </row>
     <row r="34">
@@ -1983,34 +1941,34 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.216873202704414</v>
       </c>
       <c r="E34" t="n">
-        <v>0.524101744898766</v>
+        <v>0.1176632558317</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.178357610243409</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.47234955504265</v>
+        <v>0.202335495783287</v>
       </c>
       <c r="I34" t="n">
-        <v>0.635250198910776</v>
+        <v>0.163990009847604</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.570854142924569</v>
       </c>
       <c r="K34" t="n">
-        <v>0.361234570238781</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.4745760274494</v>
       </c>
       <c r="M34" t="n">
-        <v>0.675963161764095</v>
+        <v>0.369256091673267</v>
       </c>
     </row>
     <row r="35">
@@ -2027,31 +1985,31 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.524101744898766</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.544221721012288</v>
       </c>
       <c r="H35" t="n">
-        <v>0.47234955504265</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.635250198910776</v>
+        <v>0.508702843156567</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.558875550242219</v>
       </c>
       <c r="K35" t="n">
-        <v>0.361234570238781</v>
+        <v>0.478478126757061</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.675963161764095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2065,34 +2023,34 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0.55498312799303</v>
       </c>
       <c r="E36" t="n">
-        <v>0.575220060047423</v>
+        <v>0.883110950690528</v>
       </c>
       <c r="F36" t="n">
-        <v>0.420360874578837</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.532813293539368</v>
+        <v>0.957328469028893</v>
       </c>
       <c r="H36" t="n">
-        <v>0.602099442670749</v>
+        <v>0.467968896334507</v>
       </c>
       <c r="I36" t="n">
-        <v>0.70144041751895</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.360471398910895</v>
+        <v>0.176105538937141</v>
       </c>
       <c r="K36" t="n">
-        <v>0.221392665575103</v>
+        <v>0.590354156677127</v>
       </c>
       <c r="L36" t="n">
-        <v>0.438082774407155</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.672079222580268</v>
       </c>
     </row>
     <row r="37">
@@ -2106,34 +2064,34 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.700781306742184</v>
+        <v>0.55498312799303</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.883110950690528</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.298186543908482</v>
+        <v>0.957328469028893</v>
       </c>
       <c r="H37" t="n">
-        <v>0.498718377562306</v>
+        <v>0.467968896334507</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.780268545467063</v>
+        <v>0.176105538937141</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5292405323081</v>
+        <v>0.590354156677127</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.43177407561789</v>
+        <v>0.672079222580268</v>
       </c>
     </row>
     <row r="38">
@@ -2147,34 +2105,34 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.700781306742184</v>
+        <v>0.55498312799303</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.883110950690528</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.298186543908482</v>
+        <v>0.957328469028893</v>
       </c>
       <c r="H38" t="n">
-        <v>0.498718377562306</v>
+        <v>0.467968896334507</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0.780268545467063</v>
+        <v>0.176105538937141</v>
       </c>
       <c r="K38" t="n">
-        <v>0.867173564738149</v>
+        <v>0.590354156677127</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.692991192700756</v>
+        <v>0.672079222580268</v>
       </c>
     </row>
     <row r="39">
@@ -2188,34 +2146,34 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.700781306742184</v>
+        <v>0.55498312799303</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.883110950690528</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.298186543908482</v>
+        <v>0.957328469028893</v>
       </c>
       <c r="H39" t="n">
-        <v>0.498718377562306</v>
+        <v>0.467968896334507</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0.780268545467063</v>
+        <v>0.176105538937141</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5292405323081</v>
+        <v>0.590354156677127</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.43177407561789</v>
+        <v>0.672079222580268</v>
       </c>
     </row>
     <row r="40">
@@ -2226,37 +2184,37 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.632020177920169</v>
       </c>
       <c r="D40" t="n">
-        <v>0.597935612005128</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.962171015471148</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.872584163757816</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8390715323327</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.925017779960672</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0.493577559298481</v>
+        <v>0.230618062921692</v>
       </c>
       <c r="K40" t="n">
-        <v>0.534796803917815</v>
+        <v>0.319556805469543</v>
       </c>
       <c r="L40" t="n">
-        <v>0.538267098973594</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.759964373985702</v>
       </c>
     </row>
     <row r="41">
@@ -2270,34 +2228,34 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.355686410111262</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0.436830445334785</v>
       </c>
       <c r="F41" t="n">
-        <v>0.521617663504386</v>
+        <v>0.363349300936887</v>
       </c>
       <c r="G41" t="n">
-        <v>0.813506650374751</v>
+        <v>0.645190652315157</v>
       </c>
       <c r="H41" t="n">
-        <v>0.505354910772697</v>
+        <v>0.782044023396158</v>
       </c>
       <c r="I41" t="n">
-        <v>0.769487225822063</v>
+        <v>0.882170709846062</v>
       </c>
       <c r="J41" t="n">
-        <v>0.504586239128325</v>
+        <v>0.610380312940321</v>
       </c>
       <c r="K41" t="n">
-        <v>0.302050703638361</v>
+        <v>0.681338055944109</v>
       </c>
       <c r="L41" t="n">
-        <v>0.655093953486898</v>
+        <v>0.496814998961797</v>
       </c>
       <c r="M41" t="n">
-        <v>0.884901383964634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2311,34 +2269,34 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.216873202704414</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1176632558317</v>
+        <v>0.257635814434663</v>
       </c>
       <c r="F42" t="n">
-        <v>0.178357610243409</v>
+        <v>0.214297776336072</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.380523429513832</v>
       </c>
       <c r="H42" t="n">
-        <v>0.202335495783287</v>
+        <v>0.461237422993754</v>
       </c>
       <c r="I42" t="n">
-        <v>0.163990009847604</v>
+        <v>0.52029058809628</v>
       </c>
       <c r="J42" t="n">
-        <v>0.570854142924569</v>
+        <v>0.359992831815429</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0.401842606950071</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4745760274494</v>
+        <v>0.293013772844478</v>
       </c>
       <c r="M42" t="n">
-        <v>0.369256091673267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2355,28 +2313,28 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.436830445334785</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.363349300936887</v>
       </c>
       <c r="G43" t="n">
-        <v>0.544221721012288</v>
+        <v>0.645190652315157</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.782044023396158</v>
       </c>
       <c r="I43" t="n">
-        <v>0.508702843156567</v>
+        <v>0.882170709846062</v>
       </c>
       <c r="J43" t="n">
-        <v>0.558875550242219</v>
+        <v>0.610380312940321</v>
       </c>
       <c r="K43" t="n">
-        <v>0.478478126757061</v>
+        <v>0.681338055944109</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.496814998961797</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
@@ -2390,37 +2348,37 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.632020177920169</v>
       </c>
       <c r="D44" t="n">
-        <v>0.55498312799303</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.883110950690528</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.957328469028893</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.467968896334507</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0.176105538937141</v>
+        <v>0.230618062921692</v>
       </c>
       <c r="K44" t="n">
-        <v>0.590354156677127</v>
+        <v>0.319556805469543</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.672079222580268</v>
+        <v>0.759964373985702</v>
       </c>
     </row>
     <row r="45">
@@ -2434,34 +2392,34 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.55498312799303</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.883110950690528</v>
+        <v>0.257635814434663</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.214297776336072</v>
       </c>
       <c r="G45" t="n">
-        <v>0.957328469028893</v>
+        <v>0.380523429513832</v>
       </c>
       <c r="H45" t="n">
-        <v>0.467968896334507</v>
+        <v>0.461237422993754</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0.52029058809628</v>
       </c>
       <c r="J45" t="n">
-        <v>0.176105538937141</v>
+        <v>0.359992831815429</v>
       </c>
       <c r="K45" t="n">
-        <v>0.590354156677127</v>
+        <v>0.401842606950071</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.293013772844478</v>
       </c>
       <c r="M45" t="n">
-        <v>0.672079222580268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2472,37 +2430,37 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.821722655372675</v>
       </c>
       <c r="D46" t="n">
-        <v>0.55498312799303</v>
+        <v>0.319207044353607</v>
       </c>
       <c r="E46" t="n">
-        <v>0.883110950690528</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.348854503217553</v>
       </c>
       <c r="G46" t="n">
-        <v>0.957328469028893</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.467968896334507</v>
+        <v>0.298762379177029</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0.499193635306767</v>
       </c>
       <c r="J46" t="n">
-        <v>0.176105538937141</v>
+        <v>0.335134549688025</v>
       </c>
       <c r="K46" t="n">
-        <v>0.590354156677127</v>
+        <v>0.235168534630841</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.672079222580268</v>
+        <v>0.30262666531807</v>
       </c>
     </row>
     <row r="47">
@@ -2516,34 +2474,34 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.55498312799303</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.883110950690528</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>0.662908563628907</v>
       </c>
       <c r="G47" t="n">
-        <v>0.957328469028893</v>
+        <v>0.773682326668393</v>
       </c>
       <c r="H47" t="n">
-        <v>0.467968896334507</v>
+        <v>0.697418681830384</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0.844159558567267</v>
       </c>
       <c r="J47" t="n">
-        <v>0.176105538937141</v>
+        <v>0.371650435348099</v>
       </c>
       <c r="K47" t="n">
-        <v>0.590354156677127</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.672079222580268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2557,34 +2515,34 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.55498312799303</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.883110950690528</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.452151364125492</v>
       </c>
       <c r="G48" t="n">
-        <v>0.957328469028893</v>
+        <v>0.638987387373406</v>
       </c>
       <c r="H48" t="n">
-        <v>0.467968896334507</v>
+        <v>0.291635444674815</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0.588458973430452</v>
       </c>
       <c r="J48" t="n">
-        <v>0.176105538937141</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.590354156677127</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.672079222580268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2595,37 +2553,37 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.632020177920169</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.527094023068698</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>0.856179801624372</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.39502473633195</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.856235256734211</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0.3562563011725</v>
       </c>
       <c r="J49" t="n">
-        <v>0.230618062921692</v>
+        <v>0.261966510038063</v>
       </c>
       <c r="K49" t="n">
-        <v>0.319556805469543</v>
+        <v>0.239428099005591</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>0.355120662252887</v>
       </c>
       <c r="M49" t="n">
-        <v>0.759964373985702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2636,16 +2594,16 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.632020177920169</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.307887486945291</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>0.765077931787555</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2654,19 +2612,19 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.230618062921692</v>
+        <v>0.367907161236783</v>
       </c>
       <c r="K50" t="n">
-        <v>0.319556805469543</v>
+        <v>0.594913136189308</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>0.366115360804671</v>
       </c>
       <c r="M50" t="n">
-        <v>0.759964373985702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2683,31 +2641,31 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.436830445334785</v>
+        <v>0.369829241094663</v>
       </c>
       <c r="F51" t="n">
-        <v>0.363349300936887</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.645190652315157</v>
+        <v>0.404949284151156</v>
       </c>
       <c r="H51" t="n">
-        <v>0.782044023396158</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.882170709846062</v>
+        <v>0.384809544081626</v>
       </c>
       <c r="J51" t="n">
-        <v>0.610380312940321</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.681338055944109</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>0.496814998961797</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0.631736746235165</v>
       </c>
     </row>
     <row r="52">
@@ -2724,31 +2682,31 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.257635814434663</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.214297776336072</v>
+        <v>0.42865060458209</v>
       </c>
       <c r="G52" t="n">
-        <v>0.380523429513832</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.461237422993754</v>
+        <v>0.406224488012476</v>
       </c>
       <c r="I52" t="n">
-        <v>0.52029058809628</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.359992831815429</v>
+        <v>0.510567514412021</v>
       </c>
       <c r="K52" t="n">
-        <v>0.401842606950071</v>
+        <v>0.973047965195102</v>
       </c>
       <c r="L52" t="n">
-        <v>0.293013772844478</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0.428464467820335</v>
       </c>
     </row>
     <row r="53">
@@ -2765,31 +2723,31 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.436830445334785</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.363349300936887</v>
+        <v>0.42865060458209</v>
       </c>
       <c r="G53" t="n">
-        <v>0.645190652315157</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.782044023396158</v>
+        <v>0.406224488012476</v>
       </c>
       <c r="I53" t="n">
-        <v>0.882170709846062</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.610380312940321</v>
+        <v>0.510567514412021</v>
       </c>
       <c r="K53" t="n">
-        <v>0.681338055944109</v>
+        <v>0.973047965195102</v>
       </c>
       <c r="L53" t="n">
-        <v>0.496814998961797</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0.428464467820335</v>
       </c>
     </row>
     <row r="54">
@@ -2800,37 +2758,37 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.632020177920169</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>0.733029055781709</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>0.71098394065489</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0.950591751880888</v>
       </c>
       <c r="J54" t="n">
-        <v>0.230618062921692</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.319556805469543</v>
+        <v>0.506863315934517</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.759964373985702</v>
+        <v>0.660500601122828</v>
       </c>
     </row>
     <row r="55">
@@ -2847,28 +2805,28 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.257635814434663</v>
+        <v>0.579772186566044</v>
       </c>
       <c r="F55" t="n">
-        <v>0.214297776336072</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.380523429513832</v>
+        <v>0.502393813018329</v>
       </c>
       <c r="H55" t="n">
-        <v>0.461237422993754</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.52029058809628</v>
+        <v>0.511025231911798</v>
       </c>
       <c r="J55" t="n">
-        <v>0.359992831815429</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.401842606950071</v>
+        <v>0.308528704527318</v>
       </c>
       <c r="L55" t="n">
-        <v>0.293013772844478</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
@@ -2882,37 +2840,37 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.821722655372675</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.319207044353607</v>
+        <v>0.373991177472513</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>0.468679582786019</v>
       </c>
       <c r="F56" t="n">
-        <v>0.348854503217553</v>
+        <v>0.632939040098611</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.434172989350064</v>
       </c>
       <c r="H56" t="n">
-        <v>0.298762379177029</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.499193635306767</v>
+        <v>0.481219783868921</v>
       </c>
       <c r="J56" t="n">
-        <v>0.335134549688025</v>
+        <v>0.583830943574029</v>
       </c>
       <c r="K56" t="n">
-        <v>0.235168534630841</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.30262666531807</v>
+        <v>0.342263395446323</v>
       </c>
     </row>
     <row r="57">
@@ -2926,34 +2884,34 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>0.508246522955543</v>
       </c>
       <c r="F57" t="n">
-        <v>0.662908563628907</v>
+        <v>0.498810539855044</v>
       </c>
       <c r="G57" t="n">
-        <v>0.773682326668393</v>
+        <v>0.51749376122747</v>
       </c>
       <c r="H57" t="n">
-        <v>0.697418681830384</v>
+        <v>0.929457073284106</v>
       </c>
       <c r="I57" t="n">
-        <v>0.844159558567267</v>
+        <v>0.372303249036947</v>
       </c>
       <c r="J57" t="n">
-        <v>0.371650435348099</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>0.507679372241217</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2967,34 +2925,34 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.477475984343751</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>0.965034697790168</v>
       </c>
       <c r="F58" t="n">
-        <v>0.452151364125492</v>
+        <v>0.44729604484905</v>
       </c>
       <c r="G58" t="n">
-        <v>0.638987387373406</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.291635444674815</v>
+        <v>0.646293639057762</v>
       </c>
       <c r="I58" t="n">
-        <v>0.588458973430452</v>
+        <v>0.842440612699651</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>0.290349986838608</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>0.2221779701558</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>0.203900837203551</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0.816384311696569</v>
       </c>
     </row>
     <row r="59">
@@ -3008,34 +2966,34 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.527094023068698</v>
+        <v>0.454404576617181</v>
       </c>
       <c r="E59" t="n">
-        <v>0.856179801624372</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.39502473633195</v>
+        <v>0.425682917145092</v>
       </c>
       <c r="G59" t="n">
-        <v>0.856235256734211</v>
+        <v>0.951680485546766</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.680655221082527</v>
       </c>
       <c r="I59" t="n">
-        <v>0.3562563011725</v>
+        <v>0.801734291338318</v>
       </c>
       <c r="J59" t="n">
-        <v>0.261966510038063</v>
+        <v>0.276320416453063</v>
       </c>
       <c r="K59" t="n">
-        <v>0.239428099005591</v>
+        <v>0.211442438515666</v>
       </c>
       <c r="L59" t="n">
-        <v>0.355120662252887</v>
+        <v>0.194048447753268</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0.835108029980314</v>
       </c>
     </row>
     <row r="60">
@@ -3049,31 +3007,31 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.307887486945291</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.765077931787555</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.172977373123189</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>0.134491337659696</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.367907161236783</v>
+        <v>0.472415099884813</v>
       </c>
       <c r="K60" t="n">
-        <v>0.594913136189308</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>0.366115360804671</v>
+        <v>0.638327158759418</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3090,34 +3048,34 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.677088635151259</v>
       </c>
       <c r="E61" t="n">
-        <v>0.369829241094663</v>
+        <v>0.52559711753457</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.404949284151156</v>
+        <v>0.984995059055347</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.384809544081626</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>0.459223811178915</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.631736746235165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3131,34 +3089,34 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>0.279786324440145</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.418912016419172</v>
       </c>
       <c r="F62" t="n">
-        <v>0.42865060458209</v>
+        <v>0.338045059982942</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.4801383771479</v>
       </c>
       <c r="H62" t="n">
-        <v>0.406224488012476</v>
+        <v>0.553401383609515</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>0.473850225141083</v>
       </c>
       <c r="J62" t="n">
-        <v>0.510567514412021</v>
+        <v>0.326444530203992</v>
       </c>
       <c r="K62" t="n">
-        <v>0.973047965195102</v>
+        <v>0.294700580596724</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0.207347911074256</v>
       </c>
       <c r="M62" t="n">
-        <v>0.428464467820335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -3175,31 +3133,31 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>0.889543980351978</v>
       </c>
       <c r="F63" t="n">
-        <v>0.42865060458209</v>
+        <v>0.449895815617161</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.406224488012476</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>0.914342505878341</v>
       </c>
       <c r="J63" t="n">
-        <v>0.510567514412021</v>
+        <v>0.770266000155666</v>
       </c>
       <c r="K63" t="n">
-        <v>0.973047965195102</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.428464467820335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3216,31 +3174,31 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>0.889543980351978</v>
       </c>
       <c r="F64" t="n">
-        <v>0.42865060458209</v>
+        <v>0.449895815617161</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0.406224488012476</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>0.914342505878341</v>
       </c>
       <c r="J64" t="n">
-        <v>0.510567514412021</v>
+        <v>0.770266000155666</v>
       </c>
       <c r="K64" t="n">
-        <v>0.973047965195102</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.428464467820335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3254,34 +3212,34 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>0.279786324440145</v>
       </c>
       <c r="E65" t="n">
-        <v>0.733029055781709</v>
+        <v>0.418912016419172</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>0.338045059982942</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0.4801383771479</v>
       </c>
       <c r="H65" t="n">
-        <v>0.71098394065489</v>
+        <v>0.553401383609515</v>
       </c>
       <c r="I65" t="n">
-        <v>0.950591751880888</v>
+        <v>0.473850225141083</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>0.326444530203992</v>
       </c>
       <c r="K65" t="n">
-        <v>0.506863315934517</v>
+        <v>0.294700580596724</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>0.207347911074256</v>
       </c>
       <c r="M65" t="n">
-        <v>0.660500601122828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3298,604 +3256,30 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.579772186566044</v>
+        <v>0.519116846164248</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.502393813018329</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.371881069143873</v>
       </c>
       <c r="I66" t="n">
-        <v>0.511025231911798</v>
+        <v>0.438221837687324</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0.308528704527318</v>
+        <v>0.428542194760187</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.373991177472513</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.468679582786019</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.632939040098611</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.434172989350064</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.481219783868921</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.583830943574029</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.342263395446323</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.373991177472513</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.468679582786019</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.632939040098611</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.434172989350064</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.481219783868921</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.583830943574029</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.342263395446323</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.508246522955543</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.498810539855044</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.51749376122747</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.929457073284106</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.372303249036947</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.507679372241217</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.477475984343751</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.965034697790168</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.44729604484905</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.646293639057762</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.842440612699651</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.290349986838608</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.2221779701558</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.203900837203551</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.816384311696569</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>82</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.477475984343751</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.965034697790168</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.44729604484905</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.646293639057762</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.842440612699651</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.290349986838608</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.2221779701558</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.203900837203551</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.816384311696569</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.454404576617181</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.425682917145092</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.951680485546766</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.680655221082527</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.801734291338318</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.276320416453063</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.211442438515666</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.194048447753268</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.835108029980314</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.172977373123189</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.134491337659696</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.472415099884813</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.638327158759418</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.677088635151259</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.52559711753457</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.984995059055347</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.459223811178915</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.279786324440145</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.418912016419172</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.338045059982942</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.4801383771479</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.553401383609515</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.473850225141083</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.326444530203992</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.294700580596724</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.207347911074256</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.889543980351978</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.449895815617161</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.914342505878341</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.770266000155666</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.889543980351978</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.449895815617161</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.914342505878341</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.770266000155666</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.279786324440145</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.418912016419172</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.338045059982942</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.4801383771479</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.553401383609515</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.473850225141083</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.326444530203992</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.294700580596724</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.207347911074256</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>90</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.519116846164248</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.371881069143873</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.438221837687324</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.428542194760187</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>91</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.519116846164248</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.371881069143873</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.438221837687324</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.428542194760187</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
